--- a/biology/Biologie cellulaire et moléculaire/Luminomètre/Luminomètre.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Luminomètre/Luminomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luminom%C3%A8tre</t>
+          <t>Luminomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un luminomètre est un appareil utilisé principalement en biologie moléculaire afin de mesurer une intensité lumineuse. Il est utilisé notamment pour l'étude des réactions de bioluminescence ainsi que pour la technique d'ATPmétrie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luminom%C3%A8tre</t>
+          <t>Luminomètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un luminomètre est composé :
 d'un détecteur de lumière qui va compter les photons, généralement un tube photomultiplicateur et plus rarement des photodiodes ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luminom%C3%A8tre</t>
+          <t>Luminomètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La lumière peut être quantifiée et son intensité peut être exprimée en nombre de photons. Mais le nombre de photons générés par les réactions de bioluminescence in vitro est bien trop faible pour que la lumière émise soit perçue par l'œil. De plus, la longueur d'onde de ces photons se situe généralement entre 400 et 700 nm, c'est-à-dire entre l'ultraviolet et l'infrarouge.
 Le faible nombre de photons devant être mesurés implique plusieurs caractéristiques :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luminom%C3%A8tre</t>
+          <t>Luminomètre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Les différents types de luminomètre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Luminomètre pour microplaque
 Luminomètre par tube
